--- a/materials.xlsx
+++ b/materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OKAMOTO_LAB\Documents\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chosei\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>キャベツ</t>
     <phoneticPr fontId="1"/>
@@ -99,13 +99,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>具材</t>
-    <rPh sb="0" eb="1">
-      <t>グ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ザイ</t>
-    </rPh>
+    <t>旨味</t>
+    <rPh sb="0" eb="2">
+      <t>ウマミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩味</t>
+    <rPh sb="0" eb="2">
+      <t>エンミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辛味</t>
+    <rPh sb="0" eb="2">
+      <t>カラミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸味</t>
+    <rPh sb="0" eb="2">
+      <t>サンミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘味</t>
+    <rPh sb="0" eb="2">
+      <t>アマミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースマヨ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポン酢</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>醤油マヨ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -436,81 +487,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="6" width="12.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>

--- a/materials.xlsx
+++ b/materials.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chosei\Documents\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OKAMOTO_LAB\Documents\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="materials" sheetId="1" r:id="rId1"/>
+    <sheet name="sauces" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +25,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+  <si>
+    <t>旨味</t>
+    <rPh sb="0" eb="2">
+      <t>ウマミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩味</t>
+    <rPh sb="0" eb="2">
+      <t>エンミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辛味</t>
+    <rPh sb="0" eb="2">
+      <t>カラミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>酸味</t>
+    <rPh sb="0" eb="2">
+      <t>サンミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘味</t>
+    <rPh sb="0" eb="2">
+      <t>アマミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースマヨ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポン酢</t>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>醤油マヨ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウユ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具材</t>
+    <rPh sb="0" eb="1">
+      <t>グ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>キャベツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>揚げ玉</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わかめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小エビ</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牛すじ煮込み</t>
+    <rPh sb="0" eb="1">
+      <t>ギュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツナ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -37,29 +148,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>たこ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>揚げ玉</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チーズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ねぎ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>わかめ</t>
+    <t>ネギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キムチ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -70,93 +163,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ツナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小エビ</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キムチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>牛すじ煮込み</t>
-    <rPh sb="0" eb="1">
-      <t>ギュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>旨味</t>
-    <rPh sb="0" eb="2">
-      <t>ウマミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>塩味</t>
-    <rPh sb="0" eb="2">
-      <t>エンミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>辛味</t>
-    <rPh sb="0" eb="2">
-      <t>カラミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>酸味</t>
-    <rPh sb="0" eb="2">
-      <t>サンミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甘味</t>
-    <rPh sb="0" eb="2">
-      <t>アマミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ソース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソースマヨ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ポン酢</t>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>醤油マヨ</t>
-    <rPh sb="0" eb="2">
-      <t>ショウユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>だし</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -487,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -500,109 +511,282 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -610,4 +794,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="6" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/materials.xlsx
+++ b/materials.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="materials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>旨味</t>
     <rPh sb="0" eb="2">
@@ -84,16 +84,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>具材</t>
-    <rPh sb="0" eb="1">
-      <t>グ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャベツ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -164,10 +154,6 @@
   </si>
   <si>
     <t>コーン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ソース</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -500,9 +486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -510,9 +494,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +512,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -551,7 +532,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -571,7 +552,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -591,7 +572,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -611,7 +592,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -631,7 +612,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -651,7 +632,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -671,7 +652,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -691,7 +672,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -711,7 +692,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -731,7 +712,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -751,7 +732,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -771,7 +752,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -800,9 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -810,9 +789,6 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
